--- a/data/pca/factorExposure/factorExposure_2012-08-03.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-08-03.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +689,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.003232588757290565</v>
+        <v>-0.001651082255305313</v>
       </c>
       <c r="C2">
-        <v>0.0285247725599475</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0.02891761605303342</v>
+      </c>
+      <c r="D2">
+        <v>-0.004175991897601695</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +730,27 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.001323382354794218</v>
+        <v>0.007124662467907368</v>
       </c>
       <c r="C4">
-        <v>0.08908793187034197</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>0.08382152404201636</v>
+      </c>
+      <c r="D4">
+        <v>-0.06438688949662227</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +758,167 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.006481744911699819</v>
+        <v>0.01548213691977254</v>
       </c>
       <c r="C6">
-        <v>0.1130854888907834</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0.1188776946045349</v>
+      </c>
+      <c r="D6">
+        <v>-0.01923780329552719</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.0003361766459509588</v>
+        <v>0.004454171375218559</v>
       </c>
       <c r="C7">
-        <v>0.05309301151970827</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0.05857102303160207</v>
+      </c>
+      <c r="D7">
+        <v>-0.03244631194320203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.002624641869188114</v>
+        <v>0.005129004656423847</v>
       </c>
       <c r="C8">
-        <v>0.04181361733163991</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>0.03650294641675619</v>
+      </c>
+      <c r="D8">
+        <v>-0.0352963476432352</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>0.0002860398219854823</v>
+        <v>0.00618050895869761</v>
       </c>
       <c r="C9">
-        <v>0.07219427094303187</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>0.07428946786345242</v>
+      </c>
+      <c r="D9">
+        <v>-0.06980037120918925</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.0003535025586817225</v>
+        <v>0.002101627237506677</v>
       </c>
       <c r="C10">
-        <v>0.05352670067853388</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>0.04985450009344977</v>
+      </c>
+      <c r="D10">
+        <v>0.1851779307876636</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>0.0008942152508256121</v>
+        <v>0.006911319049092185</v>
       </c>
       <c r="C11">
-        <v>0.08821061017915058</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>0.08259439103272438</v>
+      </c>
+      <c r="D11">
+        <v>-0.06726632812630941</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.0001163771157165839</v>
+        <v>0.005100412637725467</v>
       </c>
       <c r="C12">
-        <v>0.06507583760493484</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>0.0675830061680246</v>
+      </c>
+      <c r="D12">
+        <v>-0.04847044795502068</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.003117326741454685</v>
+        <v>0.009898281967060749</v>
       </c>
       <c r="C13">
-        <v>0.06868181442011789</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>0.07178253964139834</v>
+      </c>
+      <c r="D13">
+        <v>-0.05655040876036765</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.001416319594415233</v>
+        <v>0.0007167585918968813</v>
       </c>
       <c r="C14">
-        <v>0.0456504612847024</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>0.04357626281868189</v>
+      </c>
+      <c r="D14">
+        <v>-0.01221375925550821</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.002994805801415329</v>
+        <v>0.006909534896289616</v>
       </c>
       <c r="C15">
-        <v>0.03842618177057725</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>0.04110988302216498</v>
+      </c>
+      <c r="D15">
+        <v>-0.02477916786486642</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.00119174671397294</v>
+        <v>0.005875484734490686</v>
       </c>
       <c r="C16">
-        <v>0.07141560043829452</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>0.06723058746489055</v>
+      </c>
+      <c r="D16">
+        <v>-0.05740658869439178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,10 +926,13 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -886,10 +940,13 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +954,111 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.004147609745062025</v>
+        <v>0.009585005710944155</v>
       </c>
       <c r="C20">
-        <v>0.07104354890136171</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>0.06553551821544679</v>
+      </c>
+      <c r="D20">
+        <v>-0.04946919749532146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.006064645349526709</v>
+        <v>0.009305918384000595</v>
       </c>
       <c r="C21">
-        <v>0.01743476814901708</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>0.0198372364679472</v>
+      </c>
+      <c r="D21">
+        <v>-0.04008606537850438</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01840699431823624</v>
+        <v>-0.007221694122270447</v>
       </c>
       <c r="C22">
-        <v>0.07730487565580141</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>0.08647144986531299</v>
+      </c>
+      <c r="D22">
+        <v>-0.1155953726004492</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01816064712972702</v>
+        <v>-0.006948133758874984</v>
       </c>
       <c r="C23">
-        <v>0.07767486995981308</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>0.08687494017072138</v>
+      </c>
+      <c r="D23">
+        <v>-0.1167070351494705</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>0.0003635074840993475</v>
+        <v>0.006660592572239641</v>
       </c>
       <c r="C24">
-        <v>0.07819808929349557</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>0.07890728483287694</v>
+      </c>
+      <c r="D24">
+        <v>-0.06613548756990177</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.001471569851844893</v>
+        <v>0.004331396649189985</v>
       </c>
       <c r="C25">
-        <v>0.0808465521362676</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>0.07982236061429254</v>
+      </c>
+      <c r="D25">
+        <v>-0.06338464055434101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.0001755163615446848</v>
+        <v>0.004015123175411947</v>
       </c>
       <c r="C26">
-        <v>0.03465571351804747</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>0.03981463905981408</v>
+      </c>
+      <c r="D26">
+        <v>-0.02114225641678412</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1066,139 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.005712432251091515</v>
+        <v>-0.002028474525688424</v>
       </c>
       <c r="C28">
-        <v>0.103661284136948</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>0.09897636922274135</v>
+      </c>
+      <c r="D28">
+        <v>0.3266122886100319</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>0.0003363681668824643</v>
+        <v>0.003576784088119604</v>
       </c>
       <c r="C29">
-        <v>0.04539113220925255</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>0.04733955544173923</v>
+      </c>
+      <c r="D29">
+        <v>-0.009503055069352714</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.001227945854514818</v>
+        <v>0.01056901387269875</v>
       </c>
       <c r="C30">
-        <v>0.1308970696977281</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>0.1416889060274424</v>
+      </c>
+      <c r="D30">
+        <v>-0.1072206676562324</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.003113954302407948</v>
+        <v>0.00670538321099343</v>
       </c>
       <c r="C31">
-        <v>0.03940883752135235</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>0.04433623397878116</v>
+      </c>
+      <c r="D31">
+        <v>-0.02851335925704711</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0004008802623072955</v>
+        <v>0.004355704195707494</v>
       </c>
       <c r="C32">
-        <v>0.03215861513316977</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>0.03775704375865915</v>
+      </c>
+      <c r="D32">
+        <v>-0.01605064495019733</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.001996317987225154</v>
+        <v>0.009770780569266065</v>
       </c>
       <c r="C33">
-        <v>0.08551380874523042</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>0.09237219149300849</v>
+      </c>
+      <c r="D33">
+        <v>-0.06072364225158438</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>0.0004102446980944899</v>
+        <v>0.005426119298014185</v>
       </c>
       <c r="C34">
-        <v>0.05994722164083332</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>0.06014242771219916</v>
+      </c>
+      <c r="D34">
+        <v>-0.05716811508226346</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.002182856420168324</v>
+        <v>0.005317518944123395</v>
       </c>
       <c r="C35">
-        <v>0.03916822223288242</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>0.04052473703738299</v>
+      </c>
+      <c r="D35">
+        <v>-0.01400025408985228</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.004348533254645509</v>
+        <v>-0.001406796053474434</v>
       </c>
       <c r="C36">
-        <v>0.01798467730246745</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>0.02525749513730613</v>
+      </c>
+      <c r="D36">
+        <v>-0.02015897486387954</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1206,69 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.005015077845349356</v>
+        <v>0.009144988452501867</v>
       </c>
       <c r="C38">
-        <v>0.02759533374204622</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>0.03856722232195074</v>
+      </c>
+      <c r="D38">
+        <v>-0.01222458955433096</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.008172630042539717</v>
+        <v>-0.0002044951066839085</v>
       </c>
       <c r="C39">
-        <v>0.1208194241331092</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>0.1145384218667832</v>
+      </c>
+      <c r="D39">
+        <v>-0.08333179220658629</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.003772919765488444</v>
+        <v>0.00296387321648271</v>
       </c>
       <c r="C40">
-        <v>0.0818680744296197</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>0.08810525371783852</v>
+      </c>
+      <c r="D40">
+        <v>-0.0107065847688963</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.003846274946684305</v>
+        <v>0.007970835538280732</v>
       </c>
       <c r="C41">
-        <v>0.03181730732127757</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>0.04194604787350602</v>
+      </c>
+      <c r="D41">
+        <v>-0.04462732889880344</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1276,41 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.0005755740707585585</v>
+        <v>0.004391708708582392</v>
       </c>
       <c r="C43">
-        <v>0.04997461728799784</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>0.05389687633972238</v>
+      </c>
+      <c r="D43">
+        <v>-0.02697353695957072</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.00565146121741922</v>
+        <v>0.002685064416306573</v>
       </c>
       <c r="C44">
-        <v>0.1189301550266908</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>0.1052870729228454</v>
+      </c>
+      <c r="D44">
+        <v>-0.06286435646420231</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,76 +1318,97 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.001490955370070894</v>
+        <v>0.0009301960738137136</v>
       </c>
       <c r="C46">
-        <v>0.03479262615609596</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>0.03188114662305321</v>
+      </c>
+      <c r="D46">
+        <v>-0.03403257629709051</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.0006108037145512173</v>
+        <v>0.003370379280837699</v>
       </c>
       <c r="C47">
-        <v>0.03284152333122447</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>0.03544507133549843</v>
+      </c>
+      <c r="D47">
+        <v>-0.01961051369956202</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.005066202394243111</v>
+        <v>0.007874301600492552</v>
       </c>
       <c r="C48">
-        <v>0.02704185415525483</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>0.032362950662921</v>
+      </c>
+      <c r="D48">
+        <v>-0.02759004927299761</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.008054347681546484</v>
+        <v>0.01962827815853425</v>
       </c>
       <c r="C49">
-        <v>0.2027664069721717</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>0.1880888520058428</v>
+      </c>
+      <c r="D49">
+        <v>-0.01140698193286904</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>0.0005452513318039106</v>
+        <v>0.00441913170826946</v>
       </c>
       <c r="C50">
-        <v>0.03191253267139656</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>0.04290176297024389</v>
+      </c>
+      <c r="D50">
+        <v>-0.03738608475968731</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.0002116609277883896</v>
+        <v>0.003959246887641633</v>
       </c>
       <c r="C51">
-        <v>0.02213804320823295</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>0.028072252590594</v>
+      </c>
+      <c r="D51">
+        <v>-0.02369237131310285</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1260,54 +1416,69 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.0106122637621975</v>
+        <v>0.0227994335707515</v>
       </c>
       <c r="C53">
-        <v>0.1803241729144529</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>0.1723564749312865</v>
+      </c>
+      <c r="D53">
+        <v>-0.01952056137469054</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.004110726963171972</v>
+        <v>0.00971540474626168</v>
       </c>
       <c r="C54">
-        <v>0.05791510605520971</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>0.05775624398671564</v>
+      </c>
+      <c r="D54">
+        <v>-0.03912764287130434</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.003777242107142378</v>
+        <v>0.01077128728647849</v>
       </c>
       <c r="C55">
-        <v>0.1178012762510656</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>0.109476889272917</v>
+      </c>
+      <c r="D55">
+        <v>-0.0324060158615764</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.01093314800524682</v>
+        <v>0.02214043990128782</v>
       </c>
       <c r="C56">
-        <v>0.180999297945557</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>0.1730976902542126</v>
+      </c>
+      <c r="D56">
+        <v>-0.01530994519183696</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,428 +1486,545 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.003043821996923654</v>
+        <v>0.01788809351779637</v>
       </c>
       <c r="C58">
-        <v>0.1097802359072785</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>0.1063558401214095</v>
+      </c>
+      <c r="D58">
+        <v>-0.05685154149042052</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.00117292251593425</v>
+        <v>0.01011602539799737</v>
       </c>
       <c r="C59">
-        <v>0.1472864121271724</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>0.1661035929232295</v>
+      </c>
+      <c r="D59">
+        <v>0.3506123616904188</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.01099891650434604</v>
+        <v>0.02746565712685953</v>
       </c>
       <c r="C60">
-        <v>0.2155545314545942</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>0.2244460799632503</v>
+      </c>
+      <c r="D60">
+        <v>-0.01906207057552701</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.008045061563421168</v>
+        <v>-0.001269531769591706</v>
       </c>
       <c r="C61">
-        <v>0.1013541025235389</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>0.09521401358194601</v>
+      </c>
+      <c r="D61">
+        <v>-0.06070270333391673</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1504189832467052</v>
+        <v>0.1551516180609865</v>
       </c>
       <c r="C62">
-        <v>0.1074252232652756</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>0.1030728551337893</v>
+      </c>
+      <c r="D62">
+        <v>-0.01675210924593794</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.002208184753357987</v>
+        <v>0.006824454039045413</v>
       </c>
       <c r="C63">
-        <v>0.05211906806572345</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>0.05351390277715241</v>
+      </c>
+      <c r="D63">
+        <v>-0.032437350796234</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.01067098004177711</v>
+        <v>0.01760994215629293</v>
       </c>
       <c r="C64">
-        <v>0.1130830966871434</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>0.1092890528018784</v>
+      </c>
+      <c r="D64">
+        <v>-0.05070979605468331</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.009410249512236919</v>
+        <v>0.01784089086874915</v>
       </c>
       <c r="C65">
-        <v>0.1235970587578291</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>0.1188175526243307</v>
+      </c>
+      <c r="D65">
+        <v>-0.01975127949983454</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>0.001760593230481013</v>
+        <v>0.01405142191986527</v>
       </c>
       <c r="C66">
-        <v>0.1654218156328627</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>0.1638194987754649</v>
+      </c>
+      <c r="D66">
+        <v>-0.1158636050205462</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.008857494882049129</v>
+        <v>0.01580700232166728</v>
       </c>
       <c r="C67">
-        <v>0.06200332474756493</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>0.0719567223268168</v>
+      </c>
+      <c r="D67">
+        <v>-0.02509659367279035</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.004009031570317298</v>
+        <v>0.0001170957574098256</v>
       </c>
       <c r="C68">
-        <v>0.08081571465542317</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>0.08026272068226881</v>
+      </c>
+      <c r="D68">
+        <v>0.2618919227821482</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>0.00092701933561751</v>
+        <v>0.006592481470114289</v>
       </c>
       <c r="C69">
-        <v>0.04558793364713867</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>0.05236446765828329</v>
+      </c>
+      <c r="D69">
+        <v>-0.03597901055482992</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0.001671424595090064</v>
+        <v>0.002696817079548223</v>
       </c>
       <c r="C70">
-        <v>0.0037651739743434</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>0.008854164537640435</v>
+      </c>
+      <c r="D70">
+        <v>0.002076193925101915</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>0.0006495018730538137</v>
+        <v>0.004843640309513874</v>
       </c>
       <c r="C71">
-        <v>0.08781700830686923</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>0.08569905026628034</v>
+      </c>
+      <c r="D71">
+        <v>0.3034061788689799</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.007960402085951713</v>
+        <v>0.01896581377268891</v>
       </c>
       <c r="C72">
-        <v>0.1644496075894246</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>0.1577851561184113</v>
+      </c>
+      <c r="D72">
+        <v>-0.009332226177403199</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.01479993298692753</v>
+        <v>0.03288876010198472</v>
       </c>
       <c r="C73">
-        <v>0.2909676013853608</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>0.2813909231221958</v>
+      </c>
+      <c r="D73">
+        <v>-0.05501471946466861</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.004199437890550791</v>
+        <v>0.002414105038527421</v>
       </c>
       <c r="C74">
-        <v>0.10769707275178</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>0.1036201311736805</v>
+      </c>
+      <c r="D74">
+        <v>-0.03147685248855878</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>0.00225821375921419</v>
+        <v>0.01284697767517387</v>
       </c>
       <c r="C75">
-        <v>0.1205706803636722</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>0.1193224066986002</v>
+      </c>
+      <c r="D75">
+        <v>-0.02618586351523741</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.01331892910001235</v>
+        <v>0.0232816139109894</v>
       </c>
       <c r="C76">
-        <v>0.1520186748290404</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>0.1458452085311099</v>
+      </c>
+      <c r="D76">
+        <v>-0.05506835886611086</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.01115940374624833</v>
+        <v>0.02160181675016074</v>
       </c>
       <c r="C77">
-        <v>0.1100854742260931</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>0.1073600168246345</v>
+      </c>
+      <c r="D77">
+        <v>-0.04672568414858752</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.006146051363962567</v>
+        <v>0.01496573367334145</v>
       </c>
       <c r="C78">
-        <v>0.08912756481893677</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>0.1019997718050488</v>
+      </c>
+      <c r="D78">
+        <v>-0.07882247382356514</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.03002534936658328</v>
+        <v>0.0401527823988666</v>
       </c>
       <c r="C79">
-        <v>0.1708033006625727</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>0.1567919910566038</v>
+      </c>
+      <c r="D79">
+        <v>-0.02886423548706463</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.006540200333013632</v>
+        <v>0.009938176982603469</v>
       </c>
       <c r="C80">
-        <v>0.03784141459697542</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>0.03945256068721962</v>
+      </c>
+      <c r="D80">
+        <v>-0.03088231457586806</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.007194964754958547</v>
+        <v>0.01707355932340602</v>
       </c>
       <c r="C81">
-        <v>0.1281028642500138</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>0.1320975053859322</v>
+      </c>
+      <c r="D81">
+        <v>-0.03401507523144164</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.009739306552661073</v>
+        <v>0.02085259287175402</v>
       </c>
       <c r="C82">
-        <v>0.1491170342475208</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>0.1372750026258068</v>
+      </c>
+      <c r="D82">
+        <v>-0.03634819177593383</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.004425865946384059</v>
+        <v>0.01236785870115267</v>
       </c>
       <c r="C83">
-        <v>0.07359867368728645</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>0.06519976194824841</v>
+      </c>
+      <c r="D83">
+        <v>-0.04481658337829111</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.003682970892541831</v>
+        <v>0.007112341002158925</v>
       </c>
       <c r="C84">
-        <v>0.02605519734526767</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>0.03593335647157236</v>
+      </c>
+      <c r="D84">
+        <v>-0.01299687350164209</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.02111937375184427</v>
+        <v>0.03009501704735616</v>
       </c>
       <c r="C85">
-        <v>0.1391958080826138</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>0.1231014873495636</v>
+      </c>
+      <c r="D85">
+        <v>-0.03912884327897585</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.002082065618935337</v>
+        <v>0.00404817148372353</v>
       </c>
       <c r="C86">
-        <v>0.04364786699930346</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>0.05043977103885295</v>
+      </c>
+      <c r="D86">
+        <v>-0.02219298647018758</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.00458042956189983</v>
+        <v>0.01297839636493211</v>
       </c>
       <c r="C87">
-        <v>0.1396852584015021</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>0.1294675249616291</v>
+      </c>
+      <c r="D87">
+        <v>-0.0710326908772673</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.007465063252803535</v>
+        <v>-0.002636394944907498</v>
       </c>
       <c r="C88">
-        <v>0.06313979275889794</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>0.06367661055593292</v>
+      </c>
+      <c r="D88">
+        <v>-0.02763370154359165</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01044654779512518</v>
+        <v>-0.002068111655633291</v>
       </c>
       <c r="C89">
-        <v>0.1248596057874949</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>0.1292823091447734</v>
+      </c>
+      <c r="D89">
+        <v>0.3217961327415954</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.001289813105254071</v>
+        <v>0.005178602249672279</v>
       </c>
       <c r="C90">
-        <v>0.1144697005839734</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>0.1128871548777372</v>
+      </c>
+      <c r="D90">
+        <v>0.3164526963454057</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.003469369748343237</v>
+        <v>0.01138520802542495</v>
       </c>
       <c r="C91">
-        <v>0.09805292716017454</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>0.09800896357805883</v>
+      </c>
+      <c r="D91">
+        <v>-0.02667996141115362</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.004755582545552734</v>
+        <v>3.706142742905283e-05</v>
       </c>
       <c r="C92">
-        <v>0.1359297392382294</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>0.1238609740377115</v>
+      </c>
+      <c r="D92">
+        <v>0.3266932425170769</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.00106385483694937</v>
+        <v>0.003358371613666943</v>
       </c>
       <c r="C93">
-        <v>0.1053004638907115</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>0.1021444907420921</v>
+      </c>
+      <c r="D93">
+        <v>0.3007838039994502</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.01267901114572626</v>
+        <v>0.02286058185611401</v>
       </c>
       <c r="C94">
-        <v>0.1516536941109628</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>0.136145251867591</v>
+      </c>
+      <c r="D94">
+        <v>-0.0532178218804751</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.009462045700392056</v>
+        <v>0.0180154311724289</v>
       </c>
       <c r="C95">
-        <v>0.1231313248859237</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>0.12216737416474</v>
+      </c>
+      <c r="D95">
+        <v>-0.06633109809118209</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1744,43 +2032,55 @@
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.01906996368463469</v>
+        <v>0.03858362287693334</v>
       </c>
       <c r="C97">
-        <v>0.1983952890394238</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>0.2246558684120804</v>
+      </c>
+      <c r="D97">
+        <v>0.008532293728249112</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.01628752608364155</v>
+        <v>0.04100754340697803</v>
       </c>
       <c r="C98">
-        <v>0.2532460824516791</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>0.2638045447768951</v>
+      </c>
+      <c r="D98">
+        <v>-0.03136998649475435</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9859795316207673</v>
+        <v>0.9795548771139985</v>
       </c>
       <c r="C99">
-        <v>-0.05434193684592076</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>-0.1282263244839987</v>
+      </c>
+      <c r="D99">
+        <v>0.0254386450176606</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1788,21 +2088,27 @@
       <c r="C100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>0.0003084536976310365</v>
+        <v>0.00356778075768678</v>
       </c>
       <c r="C101">
-        <v>0.0456582569359299</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>0.047528912474867</v>
+      </c>
+      <c r="D101">
+        <v>-0.01015785196863318</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +2116,13 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +2130,21 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
